--- a/models/result/resnet18-data2-test1.xlsx
+++ b/models/result/resnet18-data2-test1.xlsx
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00793-HXLI-202206011657-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00077-WLHU-202206300953-双15-R.bmp</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6399602293968201</v>
+        <v>0.4183001816272736</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -474,11 +474,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01616-LYLI-202209200907-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01475-LQYU-202208221056-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4892368614673615</v>
+        <v>0.4379177093505859</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -490,11 +490,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00666-HHYU-202205180939-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00127-ZWJU-202209271700-双15-R.bmp</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6021814346313477</v>
+        <v>0.6990081071853638</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -506,46 +506,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S274-WGWE-202305181637-双波段10-R.bmp</t>
+          <t>KAPNP2H1.bmp</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8083276748657227</v>
+        <v>0.6512961983680725</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01320-BYPI-2022072270935-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02032-LYLI-202307311516-L-D.bmp</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4394064247608185</v>
+        <v>0.439334899187088</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00045-GYHU-202203091035-双15-L.bmp</t>
+          <t>0571-ZKYZL-S164-ZHPI-202210111053-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4400535523891449</v>
+        <v>0.5701499581336975</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -554,75 +554,75 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KBRND4H1.bmp</t>
+          <t>0571-ZKYZL-S239-YYJU-202303011403-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7152451872825623</v>
+        <v>0.4138141870498657</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01575-WHTI-202209090959-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01874-TLME-202301301604-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4414242804050446</v>
+        <v>0.6618466973304749</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01527-LXWE-2022082310944-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01623-LMHU-202209201508-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.609375</v>
+        <v>0.7253885865211487</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01670-SJJU-202209271432-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01111-KYME-202207041043-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6287779808044434</v>
+        <v>0.3055976033210754</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00608-LIYU-202205111530双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00034-FALI-202202111520-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7822747230529785</v>
+        <v>0.6333163380622864</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -634,14 +634,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02005-OSME-202307141551-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02033-LILU-202308011016-R-D.bmp</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4613548219203949</v>
+        <v>0.7478719353675842</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00370-LXQI-202204021115-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01411-ZJYI-202208081114-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.510886549949646</v>
+        <v>0.2553501427173615</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -666,11 +666,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00160-LHPI-202302211840-双15-R.bmp</t>
+          <t>0571-ZKYZL-S322-WXLI-202307281021-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6072346568107605</v>
+        <v>0.6510142683982849</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -682,14 +682,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S346-THYI-202308281037-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01982-CXYI-202303031452-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.307668924331665</v>
+        <v>0.5396354794502258</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -698,43 +698,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00388-LSJU-202204061548-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01985-LYMI-202303061005-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5687680244445801</v>
+        <v>0.5693274140357971</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00073-LIFA-202202181014-单波段-L-D.bmp</t>
+          <t>020-ZSSYX-01495-MXQI-2022082250829-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6434841752052307</v>
+        <v>0.5750842690467834</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00424-HCPI-202204131519-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02005-OSME-202307141551-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4266140758991241</v>
+        <v>0.4613548219203949</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -746,46 +746,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S284-NFHO-202305291449-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01894-ZYLU-202302080959-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.702237069606781</v>
+        <v>0.447638988494873</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S170-SQHO-202210181052-双波段15-L.bmp</t>
+          <t>0571-ZKYZL-S166-CYYA-202210171417-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7769701480865479</v>
+        <v>0.5711770057678223</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01968-CRFE-202303010932-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00028-XSFA-202201171707-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.35564985871315</v>
+        <v>0.7106068730354309</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -794,27 +794,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02233-LSLI-202308281107-R-D.bmp</t>
+          <t>020-ZSSYX-01093-LXQI-202207011118-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5394905805587769</v>
+        <v>0.3961560726165771</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00046-ZFPI-202203221557-双15-L.bmp</t>
+          <t>0571-ZKYZL-S219-CAJI-202301041457-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6277896165847778</v>
+        <v>0.7502349019050598</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02257-LSLI-202308091000-R-D.bmp</t>
+          <t>020-ZSSYX-01530-ZYYI-2022082311050-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4719379246234894</v>
+        <v>0.6678218841552734</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -842,30 +842,30 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0223-CXJI-202203141011-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-0222-YFLI-202203140957-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6599096059799194</v>
+        <v>0.6283985376358032</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00077-WLHU-202206300953-双15-R.bmp</t>
+          <t>0571-ZHJSH-00011-WAWE-202111241037-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4183001816272736</v>
+        <v>0.555742084980011</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -874,27 +874,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00156-WAQI-202212131029-双15-L.bmp</t>
+          <t>020-ZSSYX-02027-CQXI-202307280907-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5936830043792725</v>
+        <v>0.660576343536377</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01963-GXYU-202302281011-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01575-WHTI-202209090959-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4056437909603119</v>
+        <v>0.4414242804050446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -906,11 +906,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00048-WAQI-202204121819-双15-L.bmp</t>
+          <t>020-ZSSYX-00628-HEFA-202205131008-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6757377982139587</v>
+        <v>0.5115377902984619</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -922,11 +922,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0150-LYFA-202203021012-单波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S260-YWLI-202304170951-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7376579642295837</v>
+        <v>0.576693058013916</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -938,11 +938,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SCCDFY004-YXHU-202202221150-双波段15-R.bmp</t>
+          <t>020-ZSSYX-01958-PJQI-202302271436-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6986159682273865</v>
+        <v>0.6302451491355896</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -954,11 +954,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00032-KCXI-202201201347-双波段10-R.bmp</t>
+          <t>020-ZSSYX-00370-LXQI-202204021115-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5141788125038147</v>
+        <v>0.510886549949646</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -970,14 +970,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S209-LWQI-202211181623-双波段15-R.bmp</t>
+          <t>0571-ZKYZL-00011-WAXI-202203161345-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4824716448783875</v>
+        <v>0.5725074410438538</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -986,78 +986,78 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S330-ZMYA-202308071628-双波段10-R.bmp</t>
+          <t>020-ZSSYX-00291-XJNO-202203221630-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5460678935050964</v>
+        <v>0.6922428607940674</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00569-ZSHO-202205061119双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01767-TCXI-202210191613-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.6964773535728455</v>
+        <v>0.3261687755584717</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01704-HERO-202210091009-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02202-CLYU-202308231414-R-D.bmp</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4310715794563293</v>
+        <v>0.8646306991577148</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ZJSYF00004-LQFA-202110140913-双波段-R.bmp</t>
+          <t>020-ZSSYX-00287-WBJU-202203221502-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.486205518245697</v>
+        <v>0.7740507125854492</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01495-MXQI-2022082250829-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00424-HCPI-202204131519-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5750842690467834</v>
+        <v>0.4266140758991241</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S164-ZHPI-202210111053-双波段15-L.bmp</t>
+          <t>0571-ZKYZL-S249-CJYA-202303271514-单波段10-R.bmp</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5701499581336975</v>
+        <v>0.3031615018844604</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1082,27 +1082,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KBYL1RH1.bmp</t>
+          <t>020-ZSSYX-01838-CYPI-202301030937-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5699670314788818</v>
+        <v>0.6076391339302063</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01615-CXYA-202209191508-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S244-GSFE-202303091335-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6779599189758301</v>
+        <v>0.7138201594352722</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -1114,11 +1114,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01075-CWQI-202206300858-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01923-QFYI-202302160938-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4373711347579956</v>
+        <v>0.3509308099746704</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1130,27 +1130,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S148-WCXI-202209191505-双波段15-R.bmp</t>
+          <t>0571-ZKYZL-S294-SEQI-202306191313-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3341985940933228</v>
+        <v>0.6570896506309509</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0201-ZSYA-202203091004-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00032-KCXI-202201201343-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6784419417381287</v>
+        <v>0.6180092692375183</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1162,27 +1162,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02208-ZYHU-202308221525-R-D.bmp</t>
+          <t>020-ZSSYX-01779-ZRMI-202210240944-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5862861275672913</v>
+        <v>0.3934111297130585</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02202-CLYU-202308231414-R-D.bmp</t>
+          <t>020-ZSSYX-00534-LSXI-202204280841-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8646306991577148</v>
+        <v>0.801176130771637</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1194,62 +1194,62 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01802-LYHU-202210310954-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S209-LWQI-202211181623-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.4225597977638245</v>
+        <v>0.4824716448783875</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01475-LQYU-202208221056-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S174-GYWE-202210201044-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4379177093505859</v>
+        <v>0.2450357526540756</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S295-CWFE-202306251147-双波段10-L.bmp</t>
+          <t>KE5LJG11.bmp</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4745352268218994</v>
+        <v>0.6493996381759644</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01611-CCFA-202209190959-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02222-HHLI-202308250910-L-D.bmp</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2328961491584778</v>
+        <v>0.6697502136230469</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1258,14 +1258,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00432-CHRU-202204141114-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00907-PJQI-202206141504-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6014115810394287</v>
+        <v>0.4978521168231964</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1274,43 +1274,43 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02033-LILU-202308011016-R-D.bmp</t>
+          <t>020-ZSSYX-01715-GUYI-202210101110-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.7478719353675842</v>
+        <v>0.6024180054664612</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S328-TYYU-202308071506-双波段10-L.bmp</t>
+          <t>KEBMZ2H1.bmp</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.333619624376297</v>
+        <v>0.4676826298236847</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02214-DXPI-202308241428-L-D.bmp</t>
+          <t>020-ZSSYX-01221-LYZH-202207151002-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.6490544080734253</v>
+        <v>0.62603360414505</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1322,30 +1322,30 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00308-ZRWE-202203241532-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00117-MLQI-202209221010-双15-L.bmp</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3776667416095734</v>
+        <v>0.3458362519741058</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00583-CXE-202205090924双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01159-ZWFA-202207081030-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.5519387125968933</v>
+        <v>0.3431834876537323</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1354,30 +1354,30 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01396-LXYA-202208041102-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02241-WAXI-202308291528-R-D.bmp</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.4365828633308411</v>
+        <v>0.5978865027427673</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0185-LIHA-202203071021-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02214-DXPI-202308241428-L-D.bmp</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.366487056016922</v>
+        <v>0.6490544080734253</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1386,27 +1386,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00174-GSXI-202303291448-双15-R.bmp</t>
+          <t>0571-ZKYZL-S176-JGME-202210211345-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6765040159225464</v>
+        <v>0.3932010531425476</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00819-WYJU-202206061623-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S346-THYI-202308281037-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.4616111218929291</v>
+        <v>0.307668924331665</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1418,27 +1418,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00032-KCXI-202201201343-双波段10-L.bmp</t>
+          <t>020-ZSSYX-X0040-LQNA-202205311509-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6180092692375183</v>
+        <v>0.6981925368309021</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02016-YZXI-202307211446-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01026-ZSSH-202206231041-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6881794929504395</v>
+        <v>0.5153986811637878</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1450,11 +1450,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02225-WYYU-202308251022-R-D.bmp</t>
+          <t>0571-ZHJSH-00128-ZHJI-202209291412-双15-R.bmp</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.714849054813385</v>
+        <v>0.5587661862373352</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1466,11 +1466,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00018-LKPI-202202101612-单波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00034-FALI-202202111516-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3849542438983917</v>
+        <v>0.3970257937908173</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1482,14 +1482,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S288-LXLI-202306051142-双波段10-R.bmp</t>
+          <t>020-ZSSYX-01898-WZHU-202302090918-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.7636293768882751</v>
+        <v>0.4716649353504181</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1498,14 +1498,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01794-TJSH-202210270912-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01567-HXJI-202209080950-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.6664779782295227</v>
+        <v>0.4072135090827942</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1514,59 +1514,59 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02019-LURO-202307251028-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00130-LXJU-202202280926-单波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4578502774238586</v>
+        <v>0.7886974811553955</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01949-CZJI-202302240951-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02095-OCTA-202308191729-R-D.bmp</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2603116035461426</v>
+        <v>0.6821948885917664</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01623-LMHU-202209201508-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01452-CLHU-202208170859-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.7253885865211487</v>
+        <v>0.5878570079803467</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01854-HZQI-202301120917-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00419-LJHU-202204121158-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7383971214294434</v>
+        <v>0.5224946737289429</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1578,14 +1578,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00419-LJHU-202204121158-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00956-ZYME-202206171154-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.5224946737289429</v>
+        <v>0.2768930196762085</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1594,14 +1594,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02029-YXYI-202307280957-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01070-LSJI-202206291525-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3520318567752838</v>
+        <v>0.5045487880706787</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1610,46 +1610,46 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02026-MHLI-202307271705-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-0201-ZSYA-202203091004-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5971495509147644</v>
+        <v>0.6784419417381287</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02015-LLYI-202307111045-L-D.bmp</t>
+          <t>0571-ZHJSH-00048-WAQI-202204121819-双15-L.bmp</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.6148690581321716</v>
+        <v>0.6757377982139587</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00724-OYYI-202205241611-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01671-ZLYU-202209271517-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3887686729431152</v>
+        <v>0.6635663509368896</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1658,27 +1658,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01486-XXYA-202208240909-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00113-SXLA-202209130954-双15-L.bmp</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5244947671890259</v>
+        <v>0.6582869291305542</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01500-WSYU-2022082251513-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01870-HLSI-202301291045-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2793611884117126</v>
+        <v>0.234873965382576</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1690,14 +1690,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00378-DLHU-202204021543-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00747-DJLI-202205261541-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4021418392658234</v>
+        <v>0.6226539611816406</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1706,46 +1706,46 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01552-HLME-2022091541-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S319-SZYU-202307241348-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.6463920474052429</v>
+        <v>0.3972033858299255</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02109-YSQU-202305250913-R-D.bmp</t>
+          <t>020-ZSSYX-0185-LIHA-202203071021-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.6202694773674011</v>
+        <v>0.366487056016922</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01720-ZJYI-202210111005-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00045-GYHU-202203091035-双15-L.bmp</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5845593810081482</v>
+        <v>0.4400535523891449</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1754,14 +1754,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00332-WLJU-202203281159-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-0158-LJYI-202203030830-单波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4523202180862427</v>
+        <v>0.5647346377372742</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1770,14 +1770,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00129-ZMTI-202209291521-双15-L.bmp</t>
+          <t>0571-ZKYZL-S302-HMNA-202307031046-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4162616431713104</v>
+        <v>0.5436970591545105</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1786,43 +1786,43 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01898-WZHU-202302090918-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00535-WYZH-202204280949-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4716649353504181</v>
+        <v>0.4794852435588837</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02219-JJMI-202308241947-L-D.bmp</t>
+          <t>0571-ZKYZL-S274-WGWE-202305181637-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.6591399908065796</v>
+        <v>0.8083276748657227</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01393-SJME-202208031502-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01904-YHYA-202302100904-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.826434850692749</v>
+        <v>0.5460650324821472</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1834,11 +1834,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01917-SHXI-202302150932-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00881-SXHO-202206130923-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.6702225804328918</v>
+        <v>0.6329342722892761</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1850,14 +1850,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01816-WXYU-202212051002-双波段-R-D.bmp</t>
+          <t>KAHJ8V11.bmp</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.4765986502170563</v>
+        <v>0.5764912366867065</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1866,43 +1866,43 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02251-ZHXI-202308301141-R-D.bmp</t>
+          <t>0571-ZHJSH-00168-ZXYA-202303221712-双15-R.bmp</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.3156126737594604</v>
+        <v>0.4567444026470184</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00009-XRJU-202111151117-双波段10-L.bmp</t>
+          <t>020-ZSSYX-00556-YLFE-202205051150双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.8419453501701355</v>
+        <v>0.5858383774757385</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01904-YHYA-202302100904-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02018-CZWE-202307250851-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.5460650324821472</v>
+        <v>0.7050368785858154</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1914,59 +1914,59 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00359-CSDA-202204010956-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S359-XMYI-202309061507-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.7696703672409058</v>
+        <v>0.6550135016441345</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02093-LLDI-202308191046-R-D.bmp</t>
+          <t>020-ZSSYX-00899-WJMI-202206140908-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.6970016360282898</v>
+        <v>0.561432957649231</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01679-FYYI-202209291450-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01521-ZDYI-2022082300939-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.3829587697982788</v>
+        <v>0.4989033639431</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01705-LYQI-202210091021-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02219-JJMI-202308241947-L-D.bmp</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5130281448364258</v>
+        <v>0.6591399908065796</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1978,11 +1978,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00846-WCXI-202206081149-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00583-CXE-202205090924双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.550590455532074</v>
+        <v>0.5519387125968933</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1994,27 +1994,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0024-WHQI-202205051043双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00365-GLDU-202204020957-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.3422412276268005</v>
+        <v>0.8604583740234375</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00264-XJWE-202203181116-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00819-WYJU-202206061623-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4225224554538727</v>
+        <v>0.4616111218929291</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -2026,30 +2026,30 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00319-JYJI-202203280902-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01968-CRFE-202303010932-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.5543636679649353</v>
+        <v>0.35564985871315</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00595-ZJYU-202205100856双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01866-HYHO-202301191048-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.4753546416759491</v>
+        <v>0.503746509552002</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2058,27 +2058,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00093-LMLA-202208120913-双15-L.bmp</t>
+          <t>020-ZSSYX-01392-YYQI-202208031007-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.4709959924221039</v>
+        <v>0.5074583292007446</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01473-HJMI-202208221018-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00308-ZRWE-202203241532-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.3382558524608612</v>
+        <v>0.3776667416095734</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -2090,11 +2090,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S176-JGME-202210211345-双波段15-R.bmp</t>
+          <t>020-ZSSYX-02029-YXYI-202307280957-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3932010531425476</v>
+        <v>0.3520318567752838</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -2106,30 +2106,30 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00579-ZHYI-202205070909双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02233-LSLI-202308281107-R-D.bmp</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.6308588981628418</v>
+        <v>0.5394905805587769</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S151-PWTI-202209201044-双波段10-L.bmp</t>
+          <t>020-ZSSYX-00261-ZAAN-202203180954-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.4033443927764893</v>
+        <v>0.8233601450920105</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2138,11 +2138,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S342-JHXI-202308211649-双波段10-L.bmp</t>
+          <t>0571-ZKYZL-S333-LIHU-202308111536-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.7446985840797424</v>
+        <v>0.6696912050247192</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -2154,14 +2154,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00883-WXLI-202206130945-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00182-LUPI-202304190952-双10-L.bmp</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.4543664455413818</v>
+        <v>0.7228193879127502</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2170,30 +2170,30 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>KC3PPB11.bmp</t>
+          <t>020-ZSSYX-01591-FYLA-202209141044-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.5775154232978821</v>
+        <v>0.6268628239631653</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00366-DMRU-202204021029-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S211-JLPI-202211300952-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.612157940864563</v>
+        <v>0.3023495376110077</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2202,46 +2202,46 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01761-LQXI-202210181516-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01790-ZXXI-202210261009-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3202700316905975</v>
+        <v>0.4612719118595123</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00035-CJME-202202150943-单波段-R-D.bmp</t>
+          <t>020-ZSSYX-01979-XSZH-202303030911-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.7970553040504456</v>
+        <v>0.3403925001621246</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01525-LJLI-2022082310923-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01320-BYPI-2022072270935-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.5918514132499695</v>
+        <v>0.4394064247608185</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2250,107 +2250,107 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S233-WARO-202302221403-双波段15-R.bmp</t>
+          <t>020-ZSSYX-X0046-WLYI-202204151050-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.7346373796463013</v>
+        <v>0.5179209113121033</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01770-YAQI-202210201457-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S140-GLZH-202209020924-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.8229382038116455</v>
+        <v>0.7476372718811035</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01860-LIYI-202301160944-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00832-LMHU-202206071556-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.6503849029541016</v>
+        <v>0.567058265209198</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ZJSYF00003-MYXI-202110121400-双波段-R.bmp</t>
+          <t>0571-ZHJSH-00103-WSXI-202208231453-双15-R.bmp</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.6133807897567749</v>
+        <v>0.7349978089332581</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00615-DXLI-202205120931-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00649-WXMI-202205161541-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.4508375525474548</v>
+        <v>0.5789827704429626</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01093-LXQI-202207011118-双波段-R-D.bmp</t>
+          <t>KC3PPB11.bmp</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.3961560726165771</v>
+        <v>0.5775154232978821</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02025-LMAI-202307261110-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00389-CHTI-202204061600-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.5660680532455444</v>
+        <v>0.5449837446212769</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -2362,30 +2362,30 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01590-CLSI-202209141029-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00615-DXLI-202205120931-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.5063360929489136</v>
+        <v>0.4508375525474548</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S260-YWLI-202304170951-双波段15-R.bmp</t>
+          <t>020-ZSSYX-00739-YXYI-202205260929-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.576693058013916</v>
+        <v>0.3069652020931244</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2394,14 +2394,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02115-HDNA-202305100855-L-D.bmp</t>
+          <t>020-ZSSYX-02257-LSLI-202308091000-R-D.bmp</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.8658410310745239</v>
+        <v>0.4719379246234894</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2410,78 +2410,78 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01024-ZYQI-202206231017-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01989-PLYI-202303061450-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.5005586743354797</v>
+        <v>0.5374636054039001</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01630-GALU-202209211457-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00129-ZMTI-202209291521-双15-L.bmp</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.5741691589355469</v>
+        <v>0.4162616431713104</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01521-ZDYI-2022082300939-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00470-XWJU-202204180854-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.4989033639431</v>
+        <v>0.3527621030807495</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01671-ZLYU-202209271517-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01613-ZXBI-202209191033-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.6635663509368896</v>
+        <v>0.5859188437461853</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SCCDFY010-WHYI-202202281651-双波段15-L.bmp</t>
+          <t>020-ZSSYX-01513-YHFA-202208291005-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.5732216835021973</v>
+        <v>0.4552226364612579</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2490,11 +2490,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00740-GZXI-202205260955-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01611-CCFA-202209190959-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.4749504029750824</v>
+        <v>0.2328961491584778</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2506,14 +2506,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01622-WJXI-202209201501-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00189-YLME-202305231049-双10-L.bmp</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.5942270159721375</v>
+        <v>0.3435858190059662</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2522,59 +2522,59 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S188-CHSF-202211011112-双波段15-R.bmp</t>
+          <t>020-ZSSYX-02053-YQZH-202308091034-L-D.bmp</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.5447015762329102</v>
+        <v>0.4393556118011475</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00128-ZHJI-202209291412-双15-R.bmp</t>
+          <t>KCKKLQ11.bmp</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.5587661862373352</v>
+        <v>0.6202694773674011</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02058-HJNI-202308091617-R-D.bmp</t>
+          <t>020-ZSSYX-X0005-XXJI-202203031111-单波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.5276161432266235</v>
+        <v>0.783501923084259</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01060-PZHU-202206290902-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S288-LXLI-202306051142-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.5354887247085571</v>
+        <v>0.7636293768882751</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -2586,78 +2586,78 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02032-LYLI-202307311516-L-D.bmp</t>
+          <t>0571-ZHJSH-00118-LBYA-202209221319-双15-R.bmp</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.439334899187088</v>
+        <v>0.8102732300758362</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S244-GSFE-202303091335-双波段15-L.bmp</t>
+          <t>0571-ZKYZL-S324-ZXQI-202307311425-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.7138201594352722</v>
+        <v>0.4945672750473022</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01411-ZJYI-202208081114-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-0223-CXJI-202203141011-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2553501427173615</v>
+        <v>0.6599096059799194</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02071-CYYU-202308150921-L-D.bmp</t>
+          <t>020-ZSSYX-01316-LYWE-2022072261111-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.5790905952453613</v>
+        <v>0.3740954697132111</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01479-CDLI-202208230924-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01222-HCYA-202207151012-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.4351750016212463</v>
+        <v>0.5055975317955017</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2666,30 +2666,30 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0005-XXJI-202203031111-单波段-R-D.bmp</t>
+          <t>020-ZSSYX-01396-LXYA-202208041102-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.783501923084259</v>
+        <v>0.4365828633308411</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0158-LJYI-202203030830-单波段-L-D.bmp</t>
+          <t>020-ZSSYX-01922-LHLI-202302160923-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.5647346377372742</v>
+        <v>0.4388279020786285</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -2698,27 +2698,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01447-SMMI-202208161032-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02021-XYFA-202307251532-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.817432165145874</v>
+        <v>0.5855143666267395</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01707-ZXHU-202210091119-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01976-ZBZH-202303021453-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.5560335516929626</v>
+        <v>0.5579519271850586</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2730,27 +2730,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01758-MYYI-202210180949-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01588-LJLI-202209140946-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.4685122072696686</v>
+        <v>0.3729486167430878</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S264-JCXI-202304241152-双波段10-R.bmp</t>
+          <t>0571-ZKYZL-S293-ZJYI-202306191231-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.5736610889434814</v>
+        <v>0.6161107420921326</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2762,43 +2762,43 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01567-HXJI-202209080950-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02115-HDNA-202305100855-L-D.bmp</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.4072135090827942</v>
+        <v>0.8658410310745239</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S326-FXFE-202308041050-双波段10-L.bmp</t>
+          <t>0571-ZHJSH-00156-WAQI-202212131029-双15-L.bmp</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.5965047478675842</v>
+        <v>0.5936830043792725</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S243-FSJU-202303061532-双波段15-R.bmp</t>
+          <t>020-ZSSYX-X0050-YUJU-202204211200-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.5478861927986145</v>
+        <v>0.8024458289146423</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2810,14 +2810,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02230-WAYU-202308280839-R-D.bmp</t>
+          <t>020-ZSSYX-02010-ZHJI-202307191516-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.4768194258213043</v>
+        <v>0.7906815409660339</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2826,14 +2826,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S158-SFQI-202209281337-双波段15-R.bmp</t>
+          <t>020-ZSSYX-01901-HJYI-202302091104-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.7649893164634705</v>
+        <v>0.4131256937980652</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2842,11 +2842,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S140-GLZH-202209020924-双波段15-R.bmp</t>
+          <t>0571-ZKYZL-S308-WMMI-202307101529-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.7476372718811035</v>
+        <v>0.6162796020507812</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2858,46 +2858,46 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00470-XWJU-202204180854-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00829-YHYI-202206071148-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.3527621030807495</v>
+        <v>0.8278464674949646</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01734-LYYU-202210121534-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S343-CLLI-202308221352-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.5308118462562561</v>
+        <v>0.5662964582443237</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00423-ZGXI-202204131040-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01817-ZALI-202212070958-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.6964336037635803</v>
+        <v>0.4862669110298157</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2906,46 +2906,46 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00384-ZZYI-202204061016-双波段-L-D.bmp</t>
+          <t>SCCDFY003-MLZH-202202221203-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.4037550985813141</v>
+        <v>0.8037983775138855</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00956-ZYME-202206171154-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-X0026-CYTA-202205110931双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.2768930196762085</v>
+        <v>0.55351722240448</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0041-CXME-202205130812-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00883-WXLI-202206130945-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.7720582485198975</v>
+        <v>0.4543664455413818</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2954,43 +2954,43 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01452-CLHU-202208170859-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S243-FSJU-202303061532-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.5878570079803467</v>
+        <v>0.5478861927986145</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01822-ZSNA-202212131427-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01911-CHHO-202302140944-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.3359017670154572</v>
+        <v>0.3785327970981598</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00130-WWXI-202209291632-双15-R.bmp</t>
+          <t>020-ZSSYX-01860-LIYI-202301160944-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.6293841600418091</v>
+        <v>0.6503849029541016</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -3002,59 +3002,59 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02091-ZLZH-202307271528-L-D.bmp</t>
+          <t>0571-ZKYZL-S232-XCYI-202302201418-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.5235269665718079</v>
+        <v>0.5237426161766052</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02021-XYFA-202307251532-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00366-DMRU-202204021029-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.5855143666267395</v>
+        <v>0.612157940864563</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00488-HUXI-202204200917-双波段-R-D.bmp</t>
+          <t>ZJSYF00005-SAZH-202110201130-双波段-L.bmp</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.5980751514434814</v>
+        <v>0.753281831741333</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01982-CXYI-202303031452-双波段-L-D.bmp</t>
+          <t>KE7ME9H1.bmp</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.5396354794502258</v>
+        <v>0.6356177926063538</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -3066,11 +3066,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01785-FEYI-202210241506-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02093-LLDI-202308191046-R-D.bmp</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.7275213003158569</v>
+        <v>0.6970016360282898</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -3082,78 +3082,78 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00887-HUNA-202206131117-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02073-YYJI-202308161032-R-D.bmp</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.4600042402744293</v>
+        <v>0.7561846971511841</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01967-TXME-202303010915-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S250-JBE--202303281317-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.2966776788234711</v>
+        <v>0.3045659065246582</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01111-KYME-202207041043-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S228-GGLI-202302081101-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.3055976033210754</v>
+        <v>0.4851346611976624</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01851-ZJWU-202301101021-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00359-CSDA-202204010956-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.6505064368247986</v>
+        <v>0.7696703672409058</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00747-DJLI-202205261541-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00887-HUNA-202206131117-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.6226539611816406</v>
+        <v>0.4600042402744293</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>KCKKLQ11.bmp</t>
+          <t>KE1P4411.bmp</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.6202694773674011</v>
+        <v>0.4915876984596252</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -3178,27 +3178,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00028-XSFA-202201171707-双波段10-R.bmp</t>
+          <t>020-ZSSYX-02026-MHLI-202307271705-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.7106068730354309</v>
+        <v>0.5971495509147644</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01070-LSJI-202206291525-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-X0013-XCPI-202204281131-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.5045487880706787</v>
+        <v>0.5606355667114258</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -3210,11 +3210,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01183-ZYLI-202207121039-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S151-PWTI-202209201044-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.4263046383857727</v>
+        <v>0.4033443927764893</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -3226,11 +3226,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01498-LCLI-2022082251017-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01888-LIJI-202302060939-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.4318394660949707</v>
+        <v>0.4563398957252502</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -3242,30 +3242,30 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00429-MAER-202204140931-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S145-WJLI-202209161014-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.80598384141922</v>
+        <v>0.448313444852829</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S293-ZJYI-202306191231-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01758-MYYI-202210180949-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.6161107420921326</v>
+        <v>0.4685122072696686</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -3274,11 +3274,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01779-ZRMI-202210240944-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S265-LIFA-202304251129-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.3934111297130585</v>
+        <v>0.3391961455345154</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00062-LHFA-202203311555-双波段15-R.bmp</t>
+          <t>020-ZSSYX-00385-GEJU-202204061125-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.4094789922237396</v>
+        <v>0.529430091381073</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -3306,14 +3306,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01923-QFYI-202302160938-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00073-LIFA-202202181014-单波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.3509308099746704</v>
+        <v>0.6434841752052307</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -3322,43 +3322,43 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0050-YUJU-202204211200-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00313-LDHU-202203251000-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.8024458289146423</v>
+        <v>0.5393290519714355</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00553-YSJU-202205050906双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S226-HXHU-202302021344-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.3887122571468353</v>
+        <v>0.7271769046783447</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00261-ZAAN-202203180954-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01525-LJLI-2022082310923-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.8233601450920105</v>
+        <v>0.5918514132499695</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -3370,14 +3370,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01065-CRLI-202206291014-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01551-LJYI-2022091536-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.5166136026382446</v>
+        <v>0.2263230085372925</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -3386,30 +3386,30 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01588-LJLI-202209140946-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02071-CYYU-202308150921-L-D.bmp</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.3729486167430878</v>
+        <v>0.5790905952453613</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01513-YHFA-202208291005-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00130-WWXI-202209291632-双15-R.bmp</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.4552226364612579</v>
+        <v>0.6293841600418091</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -3418,14 +3418,14 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01790-ZXXI-202210261009-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00488-HUXI-202204200917-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.4612719118595123</v>
+        <v>0.5980751514434814</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01569-HULA-202209081013-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00007-CWLI-202111090914-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.4864215552806854</v>
+        <v>0.6824874877929688</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -3450,11 +3450,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00064-XYNA-202204011116-双波段15-R.bmp</t>
+          <t>020-ZSSYX-00793-HXLI-202206011657-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.5969251990318298</v>
+        <v>0.6399602293968201</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -3466,14 +3466,14 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01907-LWQI-202302130901-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S264-JCXI-202304241152-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.4886339008808136</v>
+        <v>0.5736610889434814</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -3482,94 +3482,94 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S166-CYYA-202210171417-双波段15-L.bmp</t>
+          <t>020-ZSSYX-01318-CZQU-2022072261525-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.5711770057678223</v>
+        <v>0.3829451203346252</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00382-LDDU-202204060934-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00477-LXFE-202204181143-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.4884011447429657</v>
+        <v>0.3601801097393036</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00401-YWLI-202204080836-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01527-LXWE-2022082310944-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.4388628005981445</v>
+        <v>0.609375</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01946-HXRO-202302231502-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01127-YYLI-202207051517-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.3856631219387054</v>
+        <v>0.3767807185649872</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00573-CYRU-202205061559双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S270-ZLFE-202305091127-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.7100563049316406</v>
+        <v>0.6858442425727844</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01906-XSYA-202302101437-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S330-ZMYA-202308071628-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.4066613018512726</v>
+        <v>0.5460678935050964</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -3578,43 +3578,43 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00130-LXJU-202202280926-单波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00019-LWZH-202112141529-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.7886974811553955</v>
+        <v>0.6525170803070068</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00662-ZYYU-202205171532-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-00110-HGQI-202204121211-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.7331422567367554</v>
+        <v>0.4096000790596008</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00664-SZFE-202205171619-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-0232-HYFA-202203150842-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.5821192860603333</v>
+        <v>0.6506568789482117</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -3626,30 +3626,30 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00034-WZHO-202202150857-单波段-L-D.bmp</t>
+          <t>KCFNSE11.bmp</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.4643162190914154</v>
+        <v>0.7224579453468323</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02211-ZXYU-202308240949-R-D.bmp</t>
+          <t>020-ZSSYX-00608-LIYU-202205111530双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.4726424813270569</v>
+        <v>0.7822747230529785</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -3658,14 +3658,14 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00829-YHYI-202206071148-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02004-HSME-202307141510-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.8278464674949646</v>
+        <v>0.4895009994506836</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -3674,11 +3674,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01026-ZSSH-202206231041-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00662-ZYYU-202205171532-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.5153986811637878</v>
+        <v>0.7331422567367554</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -3690,27 +3690,27 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01749-YWLA-202210140943-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01887-KXDA-202302031541-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.7668191194534302</v>
+        <v>0.4282686114311218</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01900-GLCA-202302091052-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01851-ZJWU-202301101021-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.7398205399513245</v>
+        <v>0.6505064368247986</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3722,27 +3722,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0046-WLYI-202204151050-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00994-LXE-202206211446-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.5179209113121033</v>
+        <v>0.6351078152656555</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S350-WXQI-202309011351-双波段10-R.bmp</t>
+          <t>020-ZSSYX-01749-YWLA-202210140943-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.5172359347343445</v>
+        <v>0.7668191194534302</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3754,30 +3754,30 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S258-ZQHU-202304121639-双波段15-L.bmp</t>
+          <t>0571-ZKYZL-S272-SCFA-202305181120-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.757482647895813</v>
+        <v>0.6377829313278198</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S334-SXYA-202308141339-双波段10-L.bmp</t>
+          <t>0571-ZKYZL-S311-LXLI-202307171435-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.504822850227356</v>
+        <v>0.4334872663021088</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -3786,27 +3786,27 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01870-HLSI-202301291045-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00093-LMLA-202208120913-双15-L.bmp</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.234873965382576</v>
+        <v>0.4709959924221039</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0013-XCPI-202204281131-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00035-CJME-202202150943-单波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.5606355667114258</v>
+        <v>0.7970553040504456</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3818,14 +3818,14 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00628-HEFA-202205131008-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01949-CZJI-202302240951-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.5115377902984619</v>
+        <v>0.2603116035461426</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -3834,14 +3834,14 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01318-CZQU-2022072261525-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-0150-LYFA-202203021012-单波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.3829451203346252</v>
+        <v>0.7376579642295837</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -3850,30 +3850,30 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0004-MAXI-202203301723-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S177-YYYI-202210211426-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.598991334438324</v>
+        <v>0.615364134311676</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00535-WYZH-202204280949-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00187-LYZH-202305161717-双10-R.bmp</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.4794852435588837</v>
+        <v>0.750510573387146</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -3882,14 +3882,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01985-LYMI-202303061005-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01500-WSYU-2022082251513-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.5693274140357971</v>
+        <v>0.2793611884117126</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -3898,14 +3898,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01614-LYCH-202209191501-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-00062-LHFA-202203311555-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.6070641279220581</v>
+        <v>0.4094789922237396</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -3914,75 +3914,75 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>KAPNP2H1.bmp</t>
+          <t>020-ZSSYX-01498-LCLI-2022082251017-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.6512961983680725</v>
+        <v>0.4318394660949707</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01989-PLYI-202303061450-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01678-SZYI-202209291439-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.5374636054039001</v>
+        <v>0.6284958124160767</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02067-WRFE-202308141044-L-D.bmp</t>
+          <t>0571-ZHJSH-00009-XRJU-202111151117-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.7728023529052734</v>
+        <v>0.8419453501701355</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02222-HHLI-202308250910-L-D.bmp</t>
+          <t>020-ZSSYX-02015-LLYI-202307111045-L-D.bmp</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.6697502136230469</v>
+        <v>0.6148690581321716</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01172-LSLI-202207111022-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02225-WYYU-202308251022-R-D.bmp</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.6485759615898132</v>
+        <v>0.714849054813385</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3994,110 +3994,110 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02018-CZWE-202307250851-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01854-HZQI-202301120917-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.7050368785858154</v>
+        <v>0.7383971214294434</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01945-CHYA-202302231445-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00429-MAER-202204140931-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.4512429237365723</v>
+        <v>0.80598384141922</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>0571-ZHJSH00035-GDTA-202202211006-双15-R.bmp</t>
+          <t>020-ZSSYX-01447-SMMI-202208161032-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.3614670634269714</v>
+        <v>0.817432165145874</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01958-PJQI-202302271436-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00046-ZFPI-202203221557-双15-L.bmp</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.6302451491355896</v>
+        <v>0.6277896165847778</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01817-ZALI-202212070958-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-00035-ZSYU-202203281628-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.4862669110298157</v>
+        <v>0.8110480904579163</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00103-WSXI-202208231453-双15-R.bmp</t>
+          <t>0571-ZKYZL-S284-NFHO-202305291449-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.7349978089332581</v>
+        <v>0.702237069606781</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01866-HYHO-202301191048-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01479-CDLI-202208230924-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.503746509552002</v>
+        <v>0.4351750016212463</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -4106,11 +4106,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02200-CYNV-202308230950-L-D.bmp</t>
+          <t>020-ZSSYX-01802-LYHU-202210310954-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.401386946439743</v>
+        <v>0.4225597977638245</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -4122,11 +4122,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0196-WSJU-202203081621-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00402-LUJI-202204080853-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.7033231854438782</v>
+        <v>0.543026864528656</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -4138,59 +4138,59 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01881-CHZH-202302021015-双波段-R-D.bmp</t>
+          <t>KBRND4H1.bmp</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.7439690828323364</v>
+        <v>0.7152451872825623</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00313-LDHU-202203251000-双波段-R-D.bmp</t>
+          <t>SCCDFY004-YXHU-202202221150-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.5393290519714355</v>
+        <v>0.6986159682273865</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01591-FYLA-202209141044-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02087-LILI-202308181107-R-D.bmp</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.6268628239631653</v>
+        <v>0.7998129725456238</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01530-ZYYI-2022082311050-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00846-WCXI-202206081149-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.6678218841552734</v>
+        <v>0.550590455532074</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -4202,14 +4202,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00739-YXYI-202205260929-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00432-CHRU-202204141114-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.3069652020931244</v>
+        <v>0.6014115810394287</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -4218,11 +4218,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01632-HYHO-202209220900-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S334-SXYA-202308141339-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.6064985990524292</v>
+        <v>0.504822850227356</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -4234,27 +4234,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01901-HJYI-202302091104-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00332-WLJU-202203281159-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.4131256937980652</v>
+        <v>0.4523202180862427</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S201-QSZH-202211111142-双波段15-R.bmp</t>
+          <t>0571-ZKYZL-S193-XUYA-202211031359-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.6857308149337769</v>
+        <v>0.6159459352493286</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -4266,59 +4266,59 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00992-ZZZH-202206211185-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S344-QCME-202308221506-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.5570533871650696</v>
+        <v>0.7570775151252747</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S311-LXLI-202307171435-双波段10-L.bmp</t>
+          <t>020-ZSSYX-02109-YSQU-202305250913-R-D.bmp</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.4334872663021088</v>
+        <v>0.6202694773674011</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S294-SEQI-202306191313-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01560-HUXI-202209070951-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.6570896506309509</v>
+        <v>0.2428184747695923</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00123-XQWU-202209271048-双15-L.bmp</t>
+          <t>020-ZSSYX-01757-DHCH-202210180919-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.6280008554458618</v>
+        <v>0.6045610904693604</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -4330,14 +4330,14 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01782-LYFA-202210241117-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00504-LYFE-202204241000-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.3722004294395447</v>
+        <v>0.6995118856430054</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -4346,11 +4346,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01678-SZYI-202209291439-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01614-LYCH-202209191501-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.6284958124160767</v>
+        <v>0.6070641279220581</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -4362,27 +4362,27 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S270-ZLFE-202305091127-双波段10-R.bmp</t>
+          <t>020-ZSSYX-00497-LXLI-202204211013-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.6858442425727844</v>
+        <v>0.6927031278610229</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00497-LXLI-202204211013-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S247-WSPI-202303211328-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.6927031278610229</v>
+        <v>0.7112427949905396</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -4394,43 +4394,43 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S226-HXHU-202302021344-双波段15-L.bmp</t>
+          <t>0571-ZKYZL-S233-WARO-202302221403-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.7271769046783447</v>
+        <v>0.7346373796463013</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0232-HYFA-202203150842-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01598-LYXI-202209160851-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.6506568789482117</v>
+        <v>0.5807698965072632</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>KCMJA5H1.bmp</t>
+          <t>020-ZSSYX-01774-QLYU-202210211444-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.5521752238273621</v>
+        <v>0.5800526142120361</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -4442,46 +4442,46 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0152-LCYU-202203021620-单波段-R-D.bmp</t>
+          <t>020-ZSSYX-02091-ZLZH-202307271528-L-D.bmp</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.6434541940689087</v>
+        <v>0.5235269665718079</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02073-YYJI-202308161032-R-D.bmp</t>
+          <t>020-ZSSYX-00553-YSJU-202205050906双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.7561846971511841</v>
+        <v>0.3887122571468353</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>KE1P4411.bmp</t>
+          <t>ZJSYF00003-MYXI-202110121400-双波段-R.bmp</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.4915876984596252</v>
+        <v>0.6133807897567749</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>1</v>
@@ -4490,14 +4490,14 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00992-ZZZH-202206211153-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01907-LWQI-202302130901-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.7304683327674866</v>
+        <v>0.4886339008808136</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -4506,11 +4506,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00182-LUPI-202304190952-双10-L.bmp</t>
+          <t>020-ZSSYX-00677-CLLI-202205191134-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.7228193879127502</v>
+        <v>0.6249638199806213</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -4522,27 +4522,27 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00832-LMHU-202206071556-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01794-TJSH-202210270912-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.567058265209198</v>
+        <v>0.6664779782295227</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02241-WAXI-202308291528-R-D.bmp</t>
+          <t>020-ZSSYX-01670-SJJU-202209271432-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.5978865027427673</v>
+        <v>0.6287779808044434</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -4554,62 +4554,62 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S324-ZXQI-202307311425-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01632-HYHO-202209220900-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.4945672750473022</v>
+        <v>0.6064985990524292</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02256-LXZH-202308301537-R-D.bmp</t>
+          <t>0571-ZKYZL-00064-XYNA-202204011116-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.4998214840888977</v>
+        <v>0.5969251990318298</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00035-ZSYU-202203281628-双波段15-L.bmp</t>
+          <t>020-ZSSYX-01486-XXYA-202208240909-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.8110480904579163</v>
+        <v>0.5244947671890259</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S344-QCME-202308221506-双波段10-R.bmp</t>
+          <t>020-ZSSYX-02019-LURO-202307251028-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.7570775151252747</v>
+        <v>0.4578502774238586</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
         <v>1</v>
@@ -4618,46 +4618,46 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S302-HMNA-202307031046-双波段10-R.bmp</t>
+          <t>020-ZSSYX-00718-HYFE-202205241110-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.5436970591545105</v>
+        <v>0.5547052025794983</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S228-GGLI-202302081101-双波段15-L.bmp</t>
+          <t>0571-ZKYZL-S303-ZHXI-202307031511-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.4851346611976624</v>
+        <v>0.4628059566020966</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01757-DHCH-202210180919-双波段-L-D.bmp</t>
+          <t>ZJSYF00004-LQFA-202110140913-双波段-R.bmp</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.6045610904693604</v>
+        <v>0.486205518245697</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -4666,14 +4666,14 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01911-CHHO-202302140944-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01024-ZYQI-202206231017-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.3785327970981598</v>
+        <v>0.5005586743354797</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00117-MLQI-202209221010-双15-L.bmp</t>
+          <t>0571-ZKYZL-S350-WXQI-202309011351-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.3458362519741058</v>
+        <v>0.5172359347343445</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
         <v>1</v>
@@ -4698,46 +4698,46 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00586-YZZH-202205091026双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02208-ZYHU-202308221525-R-D.bmp</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.6132283210754395</v>
+        <v>0.5862861275672913</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01715-GUYI-202210101110-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01822-ZSNA-202212131427-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.6024180054664612</v>
+        <v>0.3359017670154572</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00019-LWZH-202112141529-双波段10-L.bmp</t>
+          <t>020-ZSSYX-00401-YWLI-202204080836-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.6525170803070068</v>
+        <v>0.4388628005981445</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
         <v>1</v>
@@ -4746,94 +4746,94 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02017-ZXIE-202307240922-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01630-GALU-202209211457-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.4498294293880463</v>
+        <v>0.5741691589355469</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S169-XZYI-202210171650-双波段15-L.bmp</t>
+          <t>0571-ZKYZL-S201-QSZH-202211111142-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.614910364151001</v>
+        <v>0.6857308149337769</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01774-QLYU-202210211444-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01963-GXYU-202302281011-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.5800526142120361</v>
+        <v>0.4056437909603119</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>KE3K8FH1.bmp</t>
+          <t>SCCDFY010-WHYI-202202281651-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.8346925973892212</v>
+        <v>0.5732216835021973</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01888-LIJI-202302060939-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S188-CHSF-202211011112-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.4563398957252502</v>
+        <v>0.5447015762329102</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00477-LXFE-202204181143-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00573-CYRU-202205061559双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.3601801097393036</v>
+        <v>0.7100563049316406</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275" t="n">
         <v>1</v>
@@ -4842,11 +4842,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01462-GYXI-202208181011-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02200-CYNV-202308230950-L-D.bmp</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.416105717420578</v>
+        <v>0.401386946439743</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -4858,14 +4858,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01560-HUXI-202209070951-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02025-LMAI-202307261110-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.2428184747695923</v>
+        <v>0.5660680532455444</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -4874,11 +4874,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00365-GLDU-202204020957-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S361-LJHA-202309111007-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.8604583740234375</v>
+        <v>0.7682629227638245</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4890,14 +4890,14 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02004-HSME-202307141510-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00057-CRZH-202204261252-双15-L.bmp</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.4895009994506836</v>
+        <v>0.7182747721672058</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" t="n">
         <v>1</v>
@@ -4906,11 +4906,11 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01208-DUYA-202207140929-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00140-ZLXI-2022030101158-单波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.6079816818237305</v>
+        <v>0.7546570897102356</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4922,11 +4922,11 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S174-GYWE-202210201044-双波段15-L.bmp</t>
+          <t>020-ZSSYX-00740-GZXI-202205260955-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.2450357526540756</v>
+        <v>0.4749504029750824</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4938,14 +4938,14 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01838-CYPI-202301030937-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01945-CHYA-202302231445-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.6076391339302063</v>
+        <v>0.4512429237365723</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
         <v>0</v>
@@ -4954,43 +4954,43 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00955-LHJU-202206171139-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01172-LSLI-202207111022-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.4932645559310913</v>
+        <v>0.6485759615898132</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01971-ZHZH-202303011021-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01208-DUYA-202207140929-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.5384728312492371</v>
+        <v>0.6079816818237305</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00057-CRZH-202204261252-双15-L.bmp</t>
+          <t>0571-ZKYZL-S280-YJYU-202305261232-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.7182747721672058</v>
+        <v>0.7184684872627258</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -5002,30 +5002,30 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01874-TLME-202301301604-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01881-CHZH-202302021015-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.6618466973304749</v>
+        <v>0.7439690828323364</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S319-SZYU-202307241348-双波段10-R.bmp</t>
+          <t>020-ZSSYX-02058-HJNI-202308091617-R-D.bmp</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.3972033858299255</v>
+        <v>0.5276161432266235</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
@@ -5034,75 +5034,75 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00287-WBJU-202203221502-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S170-SQHO-202210181052-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.7740507125854492</v>
+        <v>0.7769701480865479</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S303-ZHXI-202307031511-双波段10-L.bmp</t>
+          <t>KE9JEXH1.bmp</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.4628059566020966</v>
+        <v>0.4538112282752991</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02027-CQXI-202307280907-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S177-YYYI-202210211422-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.660576343536377</v>
+        <v>0.3735903203487396</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>KAHJ8V11.bmp</t>
+          <t>0571-ZKYZL-S258-ZQHU-202304121639-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.5764912366867065</v>
+        <v>0.757482647895813</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01887-KXDA-202302031541-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01462-GYXI-202208181011-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.4282686114311218</v>
+        <v>0.416105717420578</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -5114,75 +5114,75 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00034-FALI-202202111520-双波段10-R.bmp</t>
+          <t>020-ZSSYX-01065-CRLI-202206291014-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.6333163380622864</v>
+        <v>0.5166136026382446</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00070-JSNA-202206091017-双15-L.bmp</t>
+          <t>020-ZSSYX-00586-YZZH-202205091026双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.7016188502311707</v>
+        <v>0.6132283210754395</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0040-LQNA-202205311509-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-0152-LCYU-202203021620-单波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.6981925368309021</v>
+        <v>0.6434541940689087</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01222-HCYA-202207151012-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01569-HULA-202209081013-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.5055975317955017</v>
+        <v>0.4864215552806854</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00402-LUJI-202204080853-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01734-LYYU-202210121534-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.543026864528656</v>
+        <v>0.5308118462562561</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -5194,11 +5194,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00994-LXE-202206211446-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S169-XZYI-202210171650-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.6351078152656555</v>
+        <v>0.614910364151001</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -5210,11 +5210,11 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01894-ZYLU-202302080959-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02035-WYXI-202308011509-L-D.bmp</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.447638988494873</v>
+        <v>0.463309109210968</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -5226,33 +5226,33 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00385-GEJU-202204061125-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02251-ZHXI-202308301141-R-D.bmp</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.529430091381073</v>
+        <v>0.3156126737594604</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S229-WWFE-202302091255-双波段15-L.bmp</t>
+          <t>020-ZSSYX-00955-LHJU-202206171139-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.5253629088401794</v>
+        <v>0.4932645559310913</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -5274,14 +5274,14 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S177-YYYI-202210211422-双波段15-L.bmp</t>
+          <t>020-ZSSYX-00992-ZZZH-202206211153-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.3735903203487396</v>
+        <v>0.7304683327674866</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D303" t="n">
         <v>0</v>
@@ -5290,78 +5290,78 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00113-SXLA-202209130954-双15-L.bmp</t>
+          <t>020-ZSSYX-00337-SLYI-202203300929-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.6582869291305542</v>
+        <v>0.5771753787994385</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
       </c>
       <c r="D304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00034-FALI-202202111516-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01785-FEYI-202210241506-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.3970257937908173</v>
+        <v>0.7275213003158569</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02010-ZHJI-202307191516-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00664-SZFE-202205171619-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.7906815409660339</v>
+        <v>0.5821192860603333</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S247-WSPI-202303211328-双波段15-L.bmp</t>
+          <t>020-ZSSYX-02084-YYHU-202308181142-R-D.bmp</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.7112427949905396</v>
+        <v>0.7754769325256348</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01775-OXYI-202210211514-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01770-YAQI-202210201457-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.468376487493515</v>
+        <v>0.8229382038116455</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D308" t="n">
         <v>1</v>
@@ -5370,43 +5370,43 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02084-YYHU-202308181142-R-D.bmp</t>
+          <t>0571-ZKYZL-S326-FXFE-202308041050-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.7754769325256348</v>
+        <v>0.5965047478675842</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S308-WMMI-202307101529-双波段10-R.bmp</t>
+          <t>020-ZSSYX-00569-ZSHO-202205061119双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.6162796020507812</v>
+        <v>0.6964773535728455</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00810-LGFE-202206060937-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00180-ZXME-202304171142-双15-L.bmp</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.5891958475112915</v>
+        <v>0.7718755006790161</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -5418,14 +5418,14 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0153-ZJZH-202203021654-单波段-R-D.bmp</t>
+          <t>020-ZSSYX-0165-LLXI-2022030311155-单波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.356967031955719</v>
+        <v>0.6613470911979675</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D312" t="n">
         <v>0</v>
@@ -5434,11 +5434,11 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0164-LLXI-2022030311147-单波段-L-D.bmp</t>
+          <t>020-ZSSYX-01075-CWQI-202206300858-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.4571872055530548</v>
+        <v>0.4373711347579956</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -5450,14 +5450,14 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S272-SCFA-202305181120-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01816-WXYU-202212051002-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.6377829313278198</v>
+        <v>0.4765986502170563</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
         <v>1</v>
@@ -5466,11 +5466,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>KE5LJG11.bmp</t>
+          <t>KE3K8FH1.bmp</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.6493996381759644</v>
+        <v>0.8346925973892212</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -5482,11 +5482,11 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00011-WAXI-202203161345-双波段15-R.bmp</t>
+          <t>020-ZSSYX-01622-WJXI-202209201501-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.5725074410438538</v>
+        <v>0.5942270159721375</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -5498,14 +5498,14 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00118-LBYA-202209221319-双15-R.bmp</t>
+          <t>020-ZSSYX-01967-TXME-202303010915-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.8102732300758362</v>
+        <v>0.2966776788234711</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -5514,11 +5514,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01458-LLWE-202208171107-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S328-TYYU-202308071506-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.3649730086326599</v>
+        <v>0.333619624376297</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -5530,62 +5530,62 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>KCFNSE11.bmp</t>
+          <t>020-ZSSYX-00579-ZHYI-202205070909双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.7224579453468323</v>
+        <v>0.6308588981628418</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01613-ZXBI-202209191033-双波段-L-D.bmp</t>
+          <t>0571-ZKYZL-S342-JHXI-202308211649-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.5859188437461853</v>
+        <v>0.7446985840797424</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00649-WXMI-202205161541-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01906-XSYA-202302101437-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.5789827704429626</v>
+        <v>0.4066613018512726</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00337-SLYI-202203300929-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01704-HERO-202210091009-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.5771753787994385</v>
+        <v>0.4310715794563293</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S322-WXLI-202307281021-双波段10-L.bmp</t>
+          <t>020-ZSSYX-00384-ZZYI-202204061016-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.6510142683982849</v>
+        <v>0.4037550985813141</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -5610,27 +5610,27 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>KE7ME9H1.bmp</t>
+          <t>020-ZSSYX-00335-RYXI-202203300905-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.6356177926063538</v>
+        <v>0.3836616277694702</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ZJSYF00005-SAZH-202110201130-双波段-L.bmp</t>
+          <t>020-ZSSYX-01552-HLME-2022091541-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.753281831741333</v>
+        <v>0.6463920474052429</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -5642,30 +5642,30 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01598-LYXI-202209160851-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01415-LQJU-202208081529-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.5807698965072632</v>
+        <v>0.4914434254169464</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00881-SXHO-202206130923-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02230-WAYU-202308280839-R-D.bmp</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.6329342722892761</v>
+        <v>0.4768194258213043</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327" t="n">
         <v>0</v>
@@ -5674,43 +5674,43 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S333-LIHU-202308111536-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01705-LYQI-202210091021-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.6696912050247192</v>
+        <v>0.5130281448364258</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00127-ZWJU-202209271700-双15-R.bmp</t>
+          <t>020-ZSSYX-00810-LGFE-202206060937-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.6990081071853638</v>
+        <v>0.5891958475112915</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00358-HXZH-202204010947-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-0164-LLXI-2022030311147-单波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.3570097386837006</v>
+        <v>0.4571872055530548</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -5722,30 +5722,30 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SCCDFY003-MLZH-202202221203-双波段15-R.bmp</t>
+          <t>020-ZSSYX-00666-HHYU-202205180939-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.8037983775138855</v>
+        <v>0.6021814346313477</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01660-ZCME-202209261452-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02017-ZXIE-202307240922-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.6389028429985046</v>
+        <v>0.4498294293880463</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332" t="n">
         <v>0</v>
@@ -5754,11 +5754,11 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>KEBMZ2H1.bmp</t>
+          <t>020-ZSSYX-01775-OXYI-202210211514-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.4676826298236847</v>
+        <v>0.468376487493515</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -5770,14 +5770,14 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S239-YYJU-202303011403-双波段15-R.bmp</t>
+          <t>020-ZSSYX-00051-LIYI-202202171121-单波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.4138141870498657</v>
+        <v>0.7556540966033936</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D334" t="n">
         <v>0</v>
@@ -5786,14 +5786,14 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S343-CLLI-202308221352-双波段10-R.bmp</t>
+          <t>020-ZSSYX-01761-LQXI-202210181516-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.5662964582443237</v>
+        <v>0.3202700316905975</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D335" t="n">
         <v>1</v>
@@ -5802,27 +5802,27 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01217-ZQLI-202207141539-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00053-QDDA-202204191634-双15-R.bmp</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.3297618925571442</v>
+        <v>0.6370004415512085</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01979-XSZH-202303030911-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00378-DLHU-202204021543-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.3403925001621246</v>
+        <v>0.4021418392658234</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -5834,11 +5834,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00409-MJFE-202204110914-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01971-ZHZH-202303011021-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.6557193994522095</v>
+        <v>0.5384728312492371</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -5850,14 +5850,14 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S211-JLPI-202211300952-双波段15-R.bmp</t>
+          <t>020-ZSSYX-00992-ZZZH-202206211185-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.3023495376110077</v>
+        <v>0.5570533871650696</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -5866,14 +5866,14 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00189-YLME-202305231049-双10-L.bmp</t>
+          <t>KBYL1RH1.bmp</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.3435858190059662</v>
+        <v>0.5699670314788818</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D340" t="n">
         <v>1</v>
@@ -5882,11 +5882,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00504-LYFE-202204241000-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01615-CXYA-202209191508-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.6995118856430054</v>
+        <v>0.6779599189758301</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -5898,11 +5898,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00031-FSFE-202203281341-双波段15-L.bmp</t>
+          <t>0571-ZKYZL-S158-SFQI-202209281337-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.6853500008583069</v>
+        <v>0.7649893164634705</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -5914,14 +5914,14 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S219-CAJI-202301041457-双波段15-L.bmp</t>
+          <t>020-ZSSYX-00034-WZHO-202202150857-单波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.7502349019050598</v>
+        <v>0.4643162190914154</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D343" t="n">
         <v>0</v>
@@ -5930,11 +5930,11 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01767-TCXI-202210191613-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-0153-ZJZH-202203021654-单波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.3261687755584717</v>
+        <v>0.356967031955719</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -5946,11 +5946,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00933-WXMI-202206161128-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S295-CWFE-202306251147-双波段10-L.bmp</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.3622536063194275</v>
+        <v>0.4745352268218994</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -5962,75 +5962,75 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02053-YQZH-202308091034-L-D.bmp</t>
+          <t>020-ZSSYX-00319-JYJI-202203280902-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.4393556118011475</v>
+        <v>0.5543636679649353</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-00110-HGQI-202204121211-双波段15-L.bmp</t>
+          <t>020-ZSSYX-0196-WSJU-202203081621-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.4096000790596008</v>
+        <v>0.7033231854438782</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00709-LIYA-202205240830-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00933-WXMI-202206161128-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.6763601303100586</v>
+        <v>0.3622536063194275</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02087-LILI-202308181107-R-D.bmp</t>
+          <t>020-ZSSYX-01526-YXXU-2022082310930-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.7998129725456238</v>
+        <v>0.3860633671283722</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0026-CYTA-202205110931双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01900-GLCA-202302091052-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.55351722240448</v>
+        <v>0.7398205399513245</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -6042,14 +6042,14 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00899-WJMI-202206140908-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00595-ZJYU-202205100856双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.561432957649231</v>
+        <v>0.4753546416759491</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D351" t="n">
         <v>0</v>
@@ -6058,107 +6058,107 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00168-ZXYA-202303221712-双15-R.bmp</t>
+          <t>020-ZSSYX-01946-HXRO-202302231502-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.4567444026470184</v>
+        <v>0.3856631219387054</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S177-YYYI-202210211426-双波段15-R.bmp</t>
+          <t>0571-ZKYZL-00031-FSFE-202203281341-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.615364134311676</v>
+        <v>0.6853500008583069</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>KE9JEXH1.bmp</t>
+          <t>0571-ZHJSH-00174-GSXI-202303291448-双15-R.bmp</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.4538112282752991</v>
+        <v>0.6765040159225464</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S359-XMYI-202309061507-双波段10-L.bmp</t>
+          <t>020-ZSSYX-02054-LPTA-202308091050-R-D.bmp</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.6550135016441345</v>
+        <v>0.7567673325538635</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
       </c>
       <c r="D355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S361-LJHA-202309111007-双波段10-L.bmp</t>
+          <t>020-ZSSYX-02006-CPLI-202307111454-L-D.bmp</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.7682629227638245</v>
+        <v>0.5542581677436829</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00180-ZXME-202304171142-双15-L.bmp</t>
+          <t>020-ZSSYX-01709-LSHO-202210091533-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.7718755006790161</v>
+        <v>0.6390413045883179</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00303-CDHA-202203240921-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00382-LDDU-202204060934-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.4471698105335236</v>
+        <v>0.4884011447429657</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -6170,11 +6170,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S265-LIFA-202304251129-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01557-CYJU-202209061436-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.3391961455345154</v>
+        <v>0.3683672547340393</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -6186,30 +6186,30 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S280-YJYU-202305261232-双波段10-L.bmp</t>
+          <t>020-ZSSYX-01782-LYFA-202210241117-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.7184684872627258</v>
+        <v>0.3722004294395447</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01159-ZWFA-202207081030-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01966-ZHYA-202303010905-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.3431834876537323</v>
+        <v>0.7362043261528015</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="n">
         <v>1</v>
@@ -6218,46 +6218,46 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01976-ZBZH-202303021453-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01183-ZYLI-202207121039-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.5579519271850586</v>
+        <v>0.4263046383857727</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00907-PJQI-202206141504-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01616-LYLI-202209200907-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.4978521168231964</v>
+        <v>0.4892368614673615</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
       </c>
       <c r="D363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00677-CLLI-202205191134-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-02256-LXZH-202308301537-R-D.bmp</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.6249638199806213</v>
+        <v>0.4998214840888977</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D364" t="n">
         <v>1</v>
@@ -6266,62 +6266,62 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02054-LPTA-202308091050-R-D.bmp</t>
+          <t>020-ZSSYX-00709-LIYA-202205240830-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.7567673325538635</v>
+        <v>0.6763601303100586</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02006-CPLI-202307111454-L-D.bmp</t>
+          <t>020-ZSSYX-01473-HJMI-202208221018-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.5542581677436829</v>
+        <v>0.3382558524608612</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01526-YXXU-2022082310930-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH00035-GDTA-202202211006-双15-R.bmp</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.3860633671283722</v>
+        <v>0.3614670634269714</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01387-DJXIA-202208021505-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00724-OYYI-202205241611-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.7655770778656006</v>
+        <v>0.3887686729431152</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -6330,11 +6330,11 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00187-LYZH-202305161717-双10-R.bmp</t>
+          <t>020-ZSSYX-01590-CLSI-202209141029-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.750510573387146</v>
+        <v>0.5063360929489136</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -6346,11 +6346,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00053-QDDA-202204191634-双15-R.bmp</t>
+          <t>020-ZSSYX-02016-YZXI-202307211446-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.6370004415512085</v>
+        <v>0.6881794929504395</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -6362,27 +6362,27 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00335-RYXI-202203300905-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-02067-WRFE-202308141044-L-D.bmp</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.3836616277694702</v>
+        <v>0.7728023529052734</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>020-ZSSYX-X0009-LQFA-202205171116-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01707-ZXHU-202210091119-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.7020397186279297</v>
+        <v>0.5560335516929626</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -6394,46 +6394,46 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00011-WAWE-202111241037-双波段10-R.bmp</t>
+          <t>020-ZSSYX-00264-XJWE-202203181116-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.555742084980011</v>
+        <v>0.4225224554538727</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01815-WLXI-202211041124-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00160-LHPI-202302211840-双15-R.bmp</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.4778557121753693</v>
+        <v>0.6072346568107605</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00389-CHTI-202204061600-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00358-HXZH-202204010947-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.5449837446212769</v>
+        <v>0.3570097386837006</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D375" t="n">
         <v>0</v>
@@ -6442,27 +6442,27 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01221-LYZH-202207151002-双波段-L-D.bmp</t>
+          <t>020-ZSSYX-00409-MJFE-202204110914-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.62603360414505</v>
+        <v>0.6557193994522095</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0222-YFLI-202203140957-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00388-LSJU-202204061548-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.6283985376358032</v>
+        <v>0.5687680244445801</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -6474,14 +6474,14 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00556-YLFE-202205051150双波段-L-D.bmp</t>
+          <t>020-ZSSYX-01815-WLXI-202211041124-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.5858383774757385</v>
+        <v>0.4778557121753693</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D378" t="n">
         <v>1</v>
@@ -6490,11 +6490,11 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01392-YYQI-202208031007-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01393-SJME-202208031502-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.5074583292007446</v>
+        <v>0.826434850692749</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -6506,43 +6506,43 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00140-ZLXI-2022030101158-单波段-R-D.bmp</t>
+          <t>020-ZSSYX-X0041-CXME-202205130812-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.7546570897102356</v>
+        <v>0.7720582485198975</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S232-XCYI-202302201418-双波段15-R.bmp</t>
+          <t>020-ZSSYX-01217-ZQLI-202207141539-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.5237426161766052</v>
+        <v>0.3297618925571442</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S145-WJLI-202209161014-双波段15-R.bmp</t>
+          <t>020-ZSSYX-00303-CDHA-202203240921-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.448313444852829</v>
+        <v>0.4471698105335236</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -6554,14 +6554,14 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01557-CYJU-202209061436-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01387-DJXIA-202208021505-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.3683672547340393</v>
+        <v>0.7655770778656006</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D383" t="n">
         <v>0</v>
@@ -6570,14 +6570,14 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S249-CJYA-202303271514-单波段10-R.bmp</t>
+          <t>0571-ZKYZL-S229-WWFE-202302091255-双波段15-L.bmp</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.3031615018844604</v>
+        <v>0.5253629088401794</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D384" t="n">
         <v>0</v>
@@ -6586,14 +6586,14 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01709-LSHO-202210091533-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01679-FYYI-202209291450-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.6390413045883179</v>
+        <v>0.3829587697982788</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D385" t="n">
         <v>0</v>
@@ -6602,30 +6602,30 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00534-LSXI-202204280841-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01660-ZCME-202209261452-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.8012416362762451</v>
+        <v>0.6388265490531921</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
       </c>
       <c r="D386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S250-JBE--202303281317-双波段15-L.bmp</t>
+          <t>0571-ZHJSH-00070-JSNA-202206091017-双15-L.bmp</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.3045104444026947</v>
+        <v>0.701590895652771</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D387" t="n">
         <v>1</v>
@@ -6634,14 +6634,14 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01127-YYLI-202207051517-双波段-R-D.bmp</t>
+          <t>0571-ZHJSH-00123-XQWU-202209271048-双15-L.bmp</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.3767444491386414</v>
+        <v>0.6279767751693726</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D388" t="n">
         <v>0</v>
@@ -6650,78 +6650,78 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01551-LJYI-2022091536-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01458-LLWE-202208171107-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.2262842953205109</v>
+        <v>0.3649809956550598</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
       </c>
       <c r="D389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01966-ZHYA-202303010905-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01720-ZJYI-202210111005-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.7363524436950684</v>
+        <v>0.5844824314117432</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
       </c>
       <c r="D390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02035-WYXI-202308011509-L-D.bmp</t>
+          <t>020-ZSSYX-X0009-LQFA-202205171116-双波段-R-D.bmp</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.4633917808532715</v>
+        <v>0.702131986618042</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01316-LYWE-2022072261111-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-00018-LKPI-202202101612-单波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.374019593000412</v>
+        <v>0.3849238157272339</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
       </c>
       <c r="D392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01415-LQJU-202208081529-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-X0004-MAXI-202203301723-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.4913522899150848</v>
+        <v>0.5990816950798035</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D393" t="n">
         <v>1</v>
@@ -6730,11 +6730,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>020-ZSSYX-01922-LHLI-202302160923-双波段-R-D.bmp</t>
+          <t>0571-ZKYZL-S148-WCXI-202209191505-双波段15-R.bmp</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.4388852119445801</v>
+        <v>0.3341963887214661</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -6746,91 +6746,91 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00051-LIYI-202202171121-单波段-L-D.bmp</t>
+          <t>020-ZSSYX-X0024-WHQI-202205051043双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.7555381655693054</v>
+        <v>0.3422516882419586</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00718-HYFE-202205241110-双波段-R-D.bmp</t>
+          <t>020-ZSSYX-01060-PZHU-202206290902-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.5547253489494324</v>
+        <v>0.5354844331741333</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
       </c>
       <c r="D396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>020-ZSSYX-02095-OCTA-202308191729-R-D.bmp</t>
+          <t>020-ZSSYX-00423-ZGXI-202204131040-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.6822265386581421</v>
+        <v>0.6964830756187439</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
       </c>
       <c r="D397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>020-ZSSYX-00291-XJNO-202203221630-双波段-L-D.bmp</t>
+          <t>0571-ZHJSH-00032-KCXI-202201201347-双波段10-R.bmp</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.6922414302825928</v>
+        <v>0.5141345262527466</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
       </c>
       <c r="D398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00007-CWLI-202111090914-双波段10-L.bmp</t>
+          <t>020-ZSSYX-02211-ZXYU-202308240949-R-D.bmp</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.682485818862915</v>
+        <v>0.4726089835166931</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>020-ZSSYX-0165-LLXI-2022030311155-单波段-R-D.bmp</t>
+          <t>020-ZSSYX-01917-SHXI-202302150932-双波段-L-D.bmp</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.6613951921463013</v>
+        <v>0.6703072786331177</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -6842,11 +6842,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>0571-ZKYZL-S193-XUYA-202211031359-双波段15-L.bmp</t>
+          <t>KCMJA5H1.bmp</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.6159937381744385</v>
+        <v>0.5521089434623718</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
